--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="3335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="3339">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1005,7 +1005,7 @@
     <t xml:space="preserve">39 of 195</t>
   </si>
   <si>
-    <t xml:space="preserve">up to 15 inches</t>
+    <t xml:space="preserve">11-15 inches</t>
   </si>
   <si>
     <t xml:space="preserve">40-65 pounds</t>
@@ -4192,7 +4192,7 @@
     <t xml:space="preserve">4 of 195</t>
   </si>
   <si>
-    <t xml:space="preserve">under 28 pounds</t>
+    <t xml:space="preserve">16-28 pounds</t>
   </si>
   <si>
     <t xml:space="preserve">The French Bulldog resembles a </t>
@@ -5450,6 +5450,9 @@
     <t xml:space="preserve">20-40 pounds</t>
   </si>
   <si>
+    <t xml:space="preserve">Kai Ken are athletic and intelligent with a strong desire to hunt. The Kai is an independent thinker and can form a strong bond with their family. They are excellent swimmers and climbers and have been known to climb trees and swim rivers in pursuit of game. Kai have a distinct brindle coat that comes in three colors: Black Brindle (Kuro-Tora), Brindle (Chu-Tora), and Red Brindle (Aka-Tora). Red brindle is the rarest of the coat colors. The distinct coloring and brindle pattern enabled the dog to blend in to the mountainous forests in which it hunted, camouflaging it against prey and predators in ancient times. The amount of brindle will vary from dog to dog as well as the brindle pattern. Most puppies are born completely black and their brindle will emerge as they age and will continue to change for around the first five years of their life. In the home, the Kai Ken requires basic canine care. They can be kept in an apartment setting provided they receive regular exercise in the form of leashed walks. Being a naturally clean breed, bathing should be limited to only when dirty. Brushing is recommended, especially during twice-a-year coat blowing.</t>
+  </si>
+  <si>
     <t xml:space="preserve">TheKai Ken should do well on a high-quality dog food, whether commercially manufactured or home-prepared with your veterinarian8217s supervision and approval. Any diet should be appropriate to the dogs age puppy, adult, or senior. Treats can be an important aid in training, but giving too many can cause obesity. Learn about which human foods are safe for dogs, and which are not. Kai Ken are a breed known to self-regulate their food intake, so it is not unusual to see variability in the quantity of food consumed.Check with your vet if you have any concerns about your dogs weight or diet. Clean, fresh water should be available at all times.</t>
   </si>
   <si>
@@ -5617,10 +5620,7 @@
     <t xml:space="preserve">173 of 195</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5 minimum inches male, 25.5 minimum inches female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 pounds or more male, 80 pounds or more female</t>
+    <t xml:space="preserve">25-30 inches</t>
   </si>
   <si>
     <t xml:space="preserve">Our Hungarian-language tip of the day The plural of Komondor is Komondorok. Now, lets take a look at the dog. What we see is a large and powerful guardian covered in profuse white cords. A big male can stand more than 27.5 inches and weigh over 100 pounds, with heavy bone, a deep chest, and lots of muscle. Despite their brawn Komondorok are agile and light-footed, and move with long strides. With their unique look, its impossible to mistake Koms for anything else.</t>
@@ -6019,7 +6019,7 @@
     <t xml:space="preserve">7-9 inches</t>
   </si>
   <si>
-    <t xml:space="preserve">under 7 pounds</t>
+    <t xml:space="preserve">6.6-8.8 pounds</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese are affectionate toy dogs weighing less than seven pounds, covered by a long, straight, silky coat. Beneath the all-white mantle is a compact body moving with a smooth and effortless gait. The overall picture depicts free-flowing elegance and balance. The irresistible Maltese facewith its big, dark eyes and black gumdrop nosecan conquer the most jaded sensibility.</t>
@@ -6370,8 +6370,7 @@
     <t xml:space="preserve">150 pounds male, 110 pounds female</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t xml:space="preserve">Unless you’ve been to Jurassic Park, you’ve never seen anything like a Mastino. These majestic guardians of startling appearance are massive, powerful dogs. The U.S. Neapolitan Mastiff Club describes their dog’s head as “astounding”—and give them credit for hitting upon just the right adjective. The profuse hanging wrinkles and folds, and pendulous lips, make a Mastino look like a marzipan Mastiff that’s been out in the sun too long. And yet, the breed’s inner dignity and nobility can only be described as beautiful.  </t>
   </si>
   <si>
     <t xml:space="preserve">The Neapolitan Mastiff should do well on a high-quality dog food, whether commercially manufactured or home-prepared with your veterinarian8217s supervision and approval. Any diet should be appropriate to the dogs age puppy, adult, or senior. Experienced Neapolitan Mastiff breeders recommend food that is slightly higher in fat and lower in protein, especially when the dog is young, as they grow so fast. Do not supplement with calcium.  Check with your vet if you have any concerns about your dogs weight or diet. Clean, fresh water should be available at all times.</t>
@@ -7852,6 +7851,9 @@
     <t xml:space="preserve">10 years</t>
   </si>
   <si>
+    <t xml:space="preserve">Beneath the Ridgeback’s trademark ridge is a whole lot of hound: Ridgebacks are fast and powerful athletes who can weigh between 70 and 85 pounds, and oftentimes more. They come in only one color – wheaten – which spans every shade seen in a wheat field, from pale flaxen to the burnished red of a maturing crop. Ridgebacks also have two nose colors: black and the less commonly seen brown.  The formidable Ridgeback can be strong willed, independent, and sometimes domineering. Ridgebacks must be guided with a firm but fair hand from puppyhood. They are faithful friends, protective of their loved ones and meltingly affectionate with those whom they trust. Still, a Ridgeback can be too much hound for the novice dog owner. </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Rhodesian Ridgeback should do well on a high-quality dog food, whether commercially manufactured or home-prepared with your veterinarians supervision and approval. Any diet should be appropriate to the dogs age puppy, adult, or senior.Ridgebacks are notorious counter surfers, so be sure not to leave human food unattended. Some dogs are prone to getting overweight, so watch your dogs calorie consumption and weight level. Treats can be an important aid in training, but giving too many can cause obesity. Learn about which human foods are safe for dogs, and which are not. Check with your vet if you have any concerns about your dogs weight or diet. Clean, fresh water should be available at all times.</t>
   </si>
   <si>
@@ -8341,6 +8343,9 @@
     <t xml:space="preserve">40-60 pounds</t>
   </si>
   <si>
+    <t xml:space="preserve"> The Segugio Italiano is also known as the Segit (pronounced: see get). It is an ancient breed thought to have descended from Egyptian hounds who found their way to the many city states that make up today’s Italy. A scenthound originally used for wild boar dating back to Italy’s pre-Roman era, similar dogs have been depicted in statues of “Diana Cacciatrice” and “Diana Scoccante L’arco” located in the Museum of Naples and the Vatican Museum respectively. Remains of dogs identical to these hounds were discovered in the province of Verona, and a painting dating back to 1600 in the Borso d’Este castle shows a hound identical to the Italian hound. Though their exact origins remain shrouded in mystery, these artifacts serve as evidence to the hound’s long and pervasive history in the region.  After the decline of wild boar in the Italian countryside, the Segit, like many similar hunting dogs, saw a drop in popularity; many dog breeds faced extinction. Thanks to the efforts of dedicated houndsmen and the resilience of the breed, this native son of Italy is now one of the most popular dogs in its homeland. Today, Segits are most often seen hunting rabbits and other small game. Rarely tracking unintended game, this robust, medium-sized hound can be run both solo or in packs. It has been used not only to track, but to track and kill, its quarry. Known for its powerful nose and “steel legs” this dog can work in any terrain with speed and accuracy for hours on end.</t>
+  </si>
+  <si>
     <t xml:space="preserve">For optimum performance, the Segugio Italiano should be fed a high protein, low fat diet specifically made for performance dogs. For less active dogs, consult your veterinarian for the right diet for your dogs activity level.  Fresh clean water should be available at all times.</t>
   </si>
   <si>
@@ -8921,6 +8926,9 @@
   </si>
   <si>
     <t xml:space="preserve">23-27 inches male, 22-25 inches female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64-86 pounds</t>
   </si>
   <si>
     <t xml:space="preserve">The Spinone Italiano plural Spinoni Italiani is a squarely and solidly built all-around hunter. Spinoni are muscular and powerful, built more for endurance than speed. The dense coat has a natural, unclippered look and comes in various colors and patterns. The face conveys the breeds abundant Old World charm. Those soft, sweetly expressive eyes set off by shaggy eyebrows and a tufted beard have won many a heart in Italyand theyre making new conquests here in America every day.</t>
@@ -9753,6 +9761,9 @@
   </si>
   <si>
     <t xml:space="preserve">13 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wetterhoun, although originally bred for hunting otters, now make excellent companions, watchdogs, and can excel in a variety of sports due to their perseverant nature.  The Wetterhoun is almost never seen apart from its owner; they enjoy their company as much as the owner enjoys theirs.</t>
   </si>
   <si>
     <t xml:space="preserve">The Wetterhoun should do well on a high-quality dog food, whether commercially manufactured or home-prepared with your veterinarians supervision and approval.</t>
@@ -10176,8 +10187,8 @@
   </sheetPr>
   <dimension ref="A1:P278"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q14" activeCellId="0" sqref="Q14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A252" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E274" activeCellId="0" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17501,26 +17512,29 @@
       <c r="G147" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="H147" s="0" t="s">
+        <v>1804</v>
+      </c>
       <c r="I147" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="P147" s="2" t="n">
         <v>0.63898916967509</v>
@@ -17531,46 +17545,46 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="N148" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="P148" s="2" t="n">
         <v>0.393501805054152</v>
@@ -17581,46 +17595,46 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>1334</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="P149" s="2" t="n">
         <v>0.685920577617329</v>
@@ -17631,46 +17645,46 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="P150" s="2" t="n">
         <v>0.371841155234657</v>
@@ -17681,46 +17695,46 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="P151" s="2" t="n">
         <v>0.306859205776173</v>
@@ -17731,19 +17745,19 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1860</v>
+        <v>532</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>88</v>
@@ -18693,7 +18707,7 @@
         <v>2088</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>61</v>
@@ -18776,7 +18790,7 @@
         <v>0.552346570397112</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
@@ -18798,7 +18812,7 @@
       <c r="G173" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H173" s="0" t="s">
         <v>2110</v>
       </c>
       <c r="I173" s="2" t="s">
@@ -20899,28 +20913,28 @@
         <v>2601</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>54</v>
+        <v>2602</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="P215" s="2" t="n">
         <v>0.617328519855596</v>
@@ -20931,46 +20945,46 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="N216" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="P216" s="2" t="n">
         <v>0.0722021660649819</v>
@@ -20981,46 +20995,46 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>569</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="L217" s="2" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="N217" s="2" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="P217" s="2" t="n">
         <v>0.953068592057762</v>
@@ -21031,46 +21045,46 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>593</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="L218" s="2" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="P218" s="2" t="n">
         <v>0.772563176895307</v>
@@ -21081,10 +21095,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>54</v>
@@ -21093,34 +21107,34 @@
         <v>1139</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="N219" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="P219" s="2" t="n">
         <v>0.729241877256318</v>
@@ -21131,10 +21145,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>54</v>
@@ -21143,34 +21157,34 @@
         <v>1288</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>167</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="N220" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="P220" s="2" t="n">
         <v>0.0505415162454874</v>
@@ -21181,46 +21195,46 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>755</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="L221" s="2" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="P221" s="2" t="n">
         <v>0.888086642599278</v>
@@ -21231,46 +21245,46 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>328</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="P222" s="2" t="n">
         <v>0.602888086642599</v>
@@ -21281,46 +21295,46 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="P223" s="2" t="n">
         <v>0.927797833935018</v>
@@ -21331,10 +21345,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>54</v>
@@ -21343,34 +21357,34 @@
         <v>1079</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="N224" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O224" s="2" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="P224" s="2" t="n">
         <v>0.164259927797834</v>
@@ -21381,46 +21395,46 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="L225" s="2" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="O225" s="2" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="P225" s="2" t="n">
         <v>0.711191335740072</v>
@@ -21431,46 +21445,46 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>1566</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="L226" s="2" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="N226" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O226" s="2" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="P226" s="2" t="n">
         <v>0.620938628158845</v>
@@ -21481,46 +21495,46 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>2206</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>316</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="L227" s="2" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="M227" s="2" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="P227" s="2" t="n">
         <v>0.671480144404332</v>
@@ -21531,46 +21545,46 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="L228" s="2" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="N228" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="P228" s="2" t="n">
         <v>0.180505415162455</v>
@@ -21581,46 +21595,46 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>54</v>
+        <v>2766</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="L229" s="2" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="N229" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="P229" s="2" t="n">
         <v>0.140794223826715</v>
@@ -21631,46 +21645,46 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>1758</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="L230" s="2" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="P230" s="2" t="n">
         <v>0.67870036101083</v>
@@ -21681,46 +21695,46 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="L231" s="2" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="N231" s="2" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="O231" s="2" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="P231" s="2" t="n">
         <v>0.942238267148014</v>
@@ -21731,46 +21745,46 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>2403</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="L232" s="2" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="P232" s="2" t="n">
         <v>0.76173285198556</v>
@@ -21781,31 +21795,31 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="K233" s="2" t="s">
         <v>2311</v>
@@ -21814,13 +21828,13 @@
         <v>54</v>
       </c>
       <c r="M233" s="2" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="N233" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="P233" s="2" t="n">
         <v>0.790613718411552</v>
@@ -21831,46 +21845,46 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="L234" s="2" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="P234" s="2" t="n">
         <v>0.898916967509025</v>
@@ -21881,46 +21895,46 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>1288</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="L235" s="2" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="P235" s="2" t="n">
         <v>0.418772563176895</v>
@@ -21931,46 +21945,46 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>817</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="K236" s="2" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="L236" s="2" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="O236" s="2" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="P236" s="2" t="n">
         <v>0.274368231046931</v>
@@ -21981,16 +21995,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>216</v>
@@ -21999,28 +22013,28 @@
         <v>354</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="L237" s="2" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="O237" s="2" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="P237" s="2" t="n">
         <v>0.342960288808664</v>
@@ -22031,7 +22045,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>54</v>
@@ -22040,37 +22054,37 @@
         <v>54</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="L238" s="2" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="N238" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="P238" s="2" t="n">
         <v>0.0306859205776173</v>
@@ -22081,46 +22095,46 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="L239" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="N239" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="P239" s="2" t="n">
         <v>0.0144404332129964</v>
@@ -22131,10 +22145,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>54</v>
@@ -22143,34 +22157,34 @@
         <v>1079</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>329</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
       <c r="L240" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M240" s="2" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="N240" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="P240" s="2" t="n">
         <v>0.0144404332129964</v>
@@ -22181,46 +22195,46 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="K241" s="2" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="L241" s="2" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="M241" s="2" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="N241" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="P241" s="2" t="n">
         <v>0.0649819494584837</v>
@@ -22231,46 +22245,46 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="L242" s="2" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="M242" s="2" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="P242" s="2" t="n">
         <v>0.252707581227437</v>
@@ -22281,46 +22295,46 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="L243" s="2" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="M243" s="2" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="P243" s="2" t="n">
         <v>0.462093862815885</v>
@@ -22331,46 +22345,46 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="K244" s="2" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="L244" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M244" s="2" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="N244" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="P244" s="2" t="n">
         <v>0.693140794223827</v>
@@ -22381,46 +22395,46 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="L245" s="2" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="P245" s="2" t="n">
         <v>0.815884476534296</v>
@@ -22431,46 +22445,46 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>54</v>
+        <v>2961</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>2960</v>
+        <v>2963</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>2961</v>
+        <v>2964</v>
       </c>
       <c r="K246" s="2" t="s">
-        <v>2962</v>
+        <v>2965</v>
       </c>
       <c r="L246" s="2" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="M246" s="2" t="s">
-        <v>2964</v>
+        <v>2967</v>
       </c>
       <c r="N246" s="2" t="s">
-        <v>2965</v>
+        <v>2968</v>
       </c>
       <c r="O246" s="2" t="s">
-        <v>2966</v>
+        <v>2969</v>
       </c>
       <c r="P246" s="2" t="n">
         <v>0.104693140794224</v>
@@ -22481,10 +22495,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>2967</v>
+        <v>2970</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>2968</v>
+        <v>2971</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>54</v>
@@ -22493,34 +22507,34 @@
         <v>1598</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>2969</v>
+        <v>2972</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>2970</v>
+        <v>2973</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>2971</v>
+        <v>2974</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>2972</v>
+        <v>2975</v>
       </c>
       <c r="L247" s="2" t="s">
-        <v>2973</v>
+        <v>2976</v>
       </c>
       <c r="M247" s="2" t="s">
-        <v>2974</v>
+        <v>2977</v>
       </c>
       <c r="N247" s="2" t="s">
-        <v>2975</v>
+        <v>2978</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>2976</v>
+        <v>2979</v>
       </c>
       <c r="P247" s="2" t="n">
         <v>0.249097472924188</v>
@@ -22531,46 +22545,46 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>2977</v>
+        <v>2980</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>2979</v>
+        <v>2982</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>2980</v>
+        <v>2983</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>2981</v>
+        <v>2984</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>2982</v>
+        <v>2985</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>2983</v>
+        <v>2986</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>2984</v>
+        <v>2987</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>2985</v>
+        <v>2988</v>
       </c>
       <c r="L248" s="2" t="s">
-        <v>2986</v>
+        <v>2989</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>2987</v>
+        <v>2990</v>
       </c>
       <c r="N248" s="2" t="s">
-        <v>2988</v>
+        <v>2991</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="P248" s="2" t="n">
         <v>0.588447653429603</v>
@@ -22581,46 +22595,46 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>2991</v>
+        <v>2994</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>2994</v>
+        <v>2997</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>2995</v>
+        <v>2998</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>2996</v>
+        <v>2999</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>2997</v>
+        <v>3000</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>2998</v>
+        <v>3001</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="N249" s="2" t="s">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="O249" s="2" t="s">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="P249" s="2" t="n">
         <v>0.32129963898917</v>
@@ -22631,46 +22645,46 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>1746</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>3008</v>
+        <v>3011</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>3009</v>
+        <v>3012</v>
       </c>
       <c r="L250" s="2" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="M250" s="2" t="s">
-        <v>3011</v>
+        <v>3014</v>
       </c>
       <c r="N250" s="2" t="s">
-        <v>3012</v>
+        <v>3015</v>
       </c>
       <c r="O250" s="2" t="s">
-        <v>3013</v>
+        <v>3016</v>
       </c>
       <c r="P250" s="2" t="n">
         <v>0.0902527075812274</v>
@@ -22681,10 +22695,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>3014</v>
+        <v>3017</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>3015</v>
+        <v>3018</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>54</v>
@@ -22693,34 +22707,34 @@
         <v>1079</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>3016</v>
+        <v>3019</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>3017</v>
+        <v>3020</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>3018</v>
+        <v>3021</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>3019</v>
+        <v>3022</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="L251" s="2" t="s">
-        <v>3021</v>
+        <v>3024</v>
       </c>
       <c r="M251" s="2" t="s">
-        <v>3022</v>
+        <v>3025</v>
       </c>
       <c r="N251" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O251" s="2" t="s">
-        <v>3023</v>
+        <v>3026</v>
       </c>
       <c r="P251" s="2" t="n">
         <v>0.292418772563177</v>
@@ -22731,16 +22745,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>3024</v>
+        <v>3027</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>3026</v>
+        <v>3029</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>3027</v>
+        <v>3030</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>1871</v>
@@ -22749,28 +22763,28 @@
         <v>20</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>3028</v>
+        <v>3031</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>3029</v>
+        <v>3032</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>3030</v>
+        <v>3033</v>
       </c>
       <c r="K252" s="2" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="L252" s="2" t="s">
-        <v>3032</v>
+        <v>3035</v>
       </c>
       <c r="M252" s="2" t="s">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="O252" s="2" t="s">
-        <v>3035</v>
+        <v>3038</v>
       </c>
       <c r="P252" s="2" t="n">
         <v>0.765342960288808</v>
@@ -22781,10 +22795,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>54</v>
@@ -22793,34 +22807,34 @@
         <v>227</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>3039</v>
+        <v>3042</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="K253" s="2" t="s">
-        <v>3043</v>
+        <v>3046</v>
       </c>
       <c r="L253" s="2" t="s">
-        <v>3043</v>
+        <v>3046</v>
       </c>
       <c r="M253" s="2" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="N253" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O253" s="2" t="s">
-        <v>3045</v>
+        <v>3048</v>
       </c>
       <c r="P253" s="2" t="n">
         <v>0.823104693140794</v>
@@ -22831,46 +22845,46 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="K254" s="2" t="s">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="L254" s="2" t="s">
-        <v>3054</v>
+        <v>3057</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="N254" s="3" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="O254" s="2" t="s">
-        <v>3057</v>
+        <v>3060</v>
       </c>
       <c r="P254" s="2" t="n">
         <v>0.0812274368231047</v>
@@ -22881,46 +22895,46 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>3060</v>
+        <v>3063</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>329</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>3063</v>
+        <v>3066</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>3064</v>
+        <v>3067</v>
       </c>
       <c r="K255" s="2" t="s">
-        <v>3065</v>
+        <v>3068</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>3066</v>
+        <v>3069</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="N255" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>3068</v>
+        <v>3071</v>
       </c>
       <c r="P255" s="2" t="n">
         <v>0.23826714801444</v>
@@ -22931,46 +22945,46 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>3069</v>
+        <v>3072</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>3070</v>
+        <v>3073</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>3071</v>
+        <v>3074</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>3072</v>
+        <v>3075</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>3073</v>
+        <v>3076</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>3074</v>
+        <v>3077</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>3076</v>
+        <v>3079</v>
       </c>
       <c r="K256" s="2" t="s">
-        <v>3077</v>
+        <v>3080</v>
       </c>
       <c r="L256" s="2" t="s">
-        <v>3078</v>
+        <v>3081</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>3079</v>
+        <v>3082</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="O256" s="2" t="s">
-        <v>3081</v>
+        <v>3084</v>
       </c>
       <c r="P256" s="2" t="n">
         <v>0.866425992779783</v>
@@ -22981,46 +22995,46 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>3082</v>
+        <v>3085</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>2206</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>3085</v>
+        <v>3088</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="K257" s="2" t="s">
-        <v>3088</v>
+        <v>3091</v>
       </c>
       <c r="L257" s="2" t="s">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="O257" s="2" t="s">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="P257" s="2" t="n">
         <v>0.267148014440433</v>
@@ -23031,46 +23045,46 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>3093</v>
+        <v>3096</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>3094</v>
+        <v>3097</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>3097</v>
+        <v>3100</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>3098</v>
+        <v>3101</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>3099</v>
+        <v>3102</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>3101</v>
+        <v>3104</v>
       </c>
       <c r="K258" s="2" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="L258" s="2" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="M258" s="2" t="s">
-        <v>3104</v>
+        <v>3107</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>3106</v>
+        <v>3109</v>
       </c>
       <c r="P258" s="2" t="n">
         <v>0.350180505415162</v>
@@ -23081,10 +23095,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>3107</v>
+        <v>3110</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>54</v>
@@ -23093,34 +23107,34 @@
         <v>1642</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>3109</v>
+        <v>3112</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>3110</v>
+        <v>3113</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>3111</v>
+        <v>3114</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>3112</v>
+        <v>3115</v>
       </c>
       <c r="K259" s="2" t="s">
-        <v>3113</v>
+        <v>3116</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>3114</v>
+        <v>3117</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="N259" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O259" s="2" t="s">
-        <v>3116</v>
+        <v>3119</v>
       </c>
       <c r="P259" s="2" t="n">
         <v>0.241877256317689</v>
@@ -23131,46 +23145,46 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>3117</v>
+        <v>3120</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>3118</v>
+        <v>3121</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>3123</v>
+        <v>3126</v>
       </c>
       <c r="K260" s="2" t="s">
-        <v>3124</v>
+        <v>3127</v>
       </c>
       <c r="L260" s="2" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="N260" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>3127</v>
+        <v>3130</v>
       </c>
       <c r="P260" s="2" t="n">
         <v>0.548736462093863</v>
@@ -23181,46 +23195,46 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>3128</v>
+        <v>3131</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>3130</v>
+        <v>3133</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>1621</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>3131</v>
+        <v>3134</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>3132</v>
+        <v>3135</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>3133</v>
+        <v>3136</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>3134</v>
+        <v>3137</v>
       </c>
       <c r="K261" s="2" t="s">
-        <v>3135</v>
+        <v>3138</v>
       </c>
       <c r="L261" s="2" t="s">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="M261" s="2" t="s">
-        <v>3137</v>
+        <v>3140</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="O261" s="2" t="s">
-        <v>3139</v>
+        <v>3142</v>
       </c>
       <c r="P261" s="2" t="n">
         <v>0.36101083032491</v>
@@ -23231,10 +23245,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>3140</v>
+        <v>3143</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>3141</v>
+        <v>3144</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>54</v>
@@ -23243,34 +23257,34 @@
         <v>2306</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="L262" s="2" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="M262" s="2" t="s">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="N262" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>3149</v>
+        <v>3152</v>
       </c>
       <c r="P262" s="2" t="n">
         <v>0.164259927797834</v>
@@ -23281,16 +23295,16 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>3150</v>
+        <v>3153</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>1791</v>
@@ -23299,28 +23313,28 @@
         <v>88</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>3152</v>
+        <v>3155</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>3153</v>
+        <v>3156</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="K263" s="2" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="L263" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="N263" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O263" s="2" t="s">
-        <v>3157</v>
+        <v>3160</v>
       </c>
       <c r="P263" s="2" t="n">
         <v>0.144404332129964</v>
@@ -23331,16 +23345,16 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>3159</v>
+        <v>3162</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>46</v>
@@ -23349,28 +23363,28 @@
         <v>329</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="L264" s="2" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="M264" s="2" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="N264" s="2" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="O264" s="2" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="P264" s="2" t="n">
         <v>0.312274368231047</v>
@@ -23381,46 +23395,46 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>1719</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="K265" s="2" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="L265" s="2" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="N265" s="2" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="O265" s="2" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
       <c r="P265" s="2" t="n">
         <v>0.71841155234657</v>
@@ -23431,46 +23445,46 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>518</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="L266" s="2" t="s">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>3191</v>
+        <v>3194</v>
       </c>
       <c r="N266" s="2" t="s">
-        <v>3192</v>
+        <v>3195</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>3193</v>
+        <v>3196</v>
       </c>
       <c r="P266" s="2" t="n">
         <v>0.740072202166065</v>
@@ -23481,46 +23495,46 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>3194</v>
+        <v>3197</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="L267" s="2" t="s">
-        <v>3202</v>
+        <v>3205</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>3205</v>
+        <v>3208</v>
       </c>
       <c r="P267" s="2" t="n">
         <v>0.411552346570397</v>
@@ -23531,46 +23545,46 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="L268" s="2" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>3216</v>
+        <v>3219</v>
       </c>
       <c r="N268" s="2" t="s">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="P268" s="2" t="n">
         <v>0.498194945848375</v>
@@ -23581,16 +23595,16 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>3220</v>
+        <v>3223</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>3221</v>
+        <v>3224</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>3222</v>
+        <v>3225</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>263</v>
@@ -23599,28 +23613,28 @@
         <v>115</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>3224</v>
+        <v>3227</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>3225</v>
+        <v>3228</v>
       </c>
       <c r="K269" s="2" t="s">
-        <v>3226</v>
+        <v>3229</v>
       </c>
       <c r="L269" s="2" t="s">
-        <v>3227</v>
+        <v>3230</v>
       </c>
       <c r="M269" s="2" t="s">
-        <v>3228</v>
+        <v>3231</v>
       </c>
       <c r="N269" s="2" t="s">
-        <v>3229</v>
+        <v>3232</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>3230</v>
+        <v>3233</v>
       </c>
       <c r="P269" s="2" t="n">
         <v>0.379061371841155</v>
@@ -23631,46 +23645,46 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>3232</v>
+        <v>3235</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>3233</v>
+        <v>3236</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>3234</v>
+        <v>3237</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>54</v>
+        <v>3239</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
       <c r="K270" s="2" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="L270" s="2" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="N270" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O270" s="2" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
       <c r="P270" s="2" t="n">
         <v>0.137184115523466</v>
@@ -23681,13 +23695,13 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>605</v>
@@ -23699,28 +23713,28 @@
         <v>20</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="K271" s="2" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="L271" s="2" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="N271" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="P271" s="2" t="n">
         <v>0.812274368231047</v>
@@ -23731,46 +23745,46 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>3254</v>
+        <v>3258</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>3256</v>
+        <v>3260</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>3257</v>
+        <v>3261</v>
       </c>
       <c r="K272" s="2" t="s">
-        <v>3258</v>
+        <v>3262</v>
       </c>
       <c r="L272" s="2" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
       <c r="N272" s="3" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="P272" s="2" t="n">
         <v>0.346570397111913</v>
@@ -23781,46 +23795,46 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>3268</v>
+        <v>3272</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
       <c r="K273" s="2" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="L273" s="2" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>3273</v>
+        <v>3277</v>
       </c>
       <c r="N273" s="2" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="O273" s="2" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="P273" s="2" t="n">
         <v>0.458483754512635</v>
@@ -23831,46 +23845,46 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>3280</v>
+        <v>3284</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>290</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>3282</v>
+        <v>3286</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>3283</v>
+        <v>3287</v>
       </c>
       <c r="K274" s="2" t="s">
-        <v>3284</v>
+        <v>3288</v>
       </c>
       <c r="L274" s="2" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="M274" s="2" t="s">
-        <v>3286</v>
+        <v>3290</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="O274" s="2" t="s">
-        <v>3288</v>
+        <v>3292</v>
       </c>
       <c r="P274" s="2" t="n">
         <v>0.256317689530686</v>
@@ -23881,46 +23895,46 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
       <c r="L275" s="2" t="s">
-        <v>3297</v>
+        <v>3301</v>
       </c>
       <c r="M275" s="2" t="s">
-        <v>3298</v>
+        <v>3302</v>
       </c>
       <c r="N275" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O275" s="2" t="s">
-        <v>3299</v>
+        <v>3303</v>
       </c>
       <c r="P275" s="2" t="n">
         <v>0.649819494584838</v>
@@ -23931,46 +23945,46 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>3302</v>
+        <v>3306</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>3303</v>
+        <v>3307</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>967</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>3305</v>
+        <v>3309</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>3306</v>
+        <v>3310</v>
       </c>
       <c r="K276" s="2" t="s">
-        <v>3307</v>
+        <v>3311</v>
       </c>
       <c r="L276" s="2" t="s">
-        <v>3308</v>
+        <v>3312</v>
       </c>
       <c r="M276" s="2" t="s">
-        <v>3309</v>
+        <v>3313</v>
       </c>
       <c r="N276" s="2" t="s">
-        <v>3310</v>
+        <v>3314</v>
       </c>
       <c r="O276" s="2" t="s">
-        <v>3311</v>
+        <v>3315</v>
       </c>
       <c r="P276" s="2" t="n">
         <v>0.8014440433213</v>
@@ -23981,16 +23995,16 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>3312</v>
+        <v>3316</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>3313</v>
+        <v>3317</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>3314</v>
+        <v>3318</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>718</v>
@@ -23999,28 +24013,28 @@
         <v>88</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>3315</v>
+        <v>3319</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>3316</v>
+        <v>3320</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>3317</v>
+        <v>3321</v>
       </c>
       <c r="K277" s="2" t="s">
-        <v>3318</v>
+        <v>3322</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>3319</v>
+        <v>3323</v>
       </c>
       <c r="M277" s="2" t="s">
-        <v>3320</v>
+        <v>3324</v>
       </c>
       <c r="N277" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O277" s="2" t="s">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="P277" s="2" t="n">
         <v>0.0866425992779783</v>
@@ -24031,46 +24045,46 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>3322</v>
+        <v>3326</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>3323</v>
+        <v>3327</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>3324</v>
+        <v>3328</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>3325</v>
+        <v>3329</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>3326</v>
+        <v>3330</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>264</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>3327</v>
+        <v>3331</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>3328</v>
+        <v>3332</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>3329</v>
+        <v>3333</v>
       </c>
       <c r="K278" s="2" t="s">
-        <v>3330</v>
+        <v>3334</v>
       </c>
       <c r="L278" s="2" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>3332</v>
+        <v>3336</v>
       </c>
       <c r="N278" s="2" t="s">
-        <v>3333</v>
+        <v>3337</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>3334</v>
+        <v>3338</v>
       </c>
       <c r="P278" s="2" t="n">
         <v>0.848375451263538</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="3337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="3341">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -5466,6 +5466,9 @@
     <t xml:space="preserve">20-40 pounds</t>
   </si>
   <si>
+    <t xml:space="preserve">Kai Ken are athletic and intelligent with a strong desire to hunt. The Kai is an independent thinker and can form a strong bond with their family. They are excellent swimmers and climbers and have been known to climb trees and swim rivers in pursuit of game. Kai have a distinct brindle coat that comes in three colors: Black Brindle (Kuro-Tora), Brindle (Chu-Tora), and Red Brindle (Aka-Tora). Red brindle is the rarest of the coat colors. The distinct coloring and brindle pattern enabled the dog to blend in to the mountainous forests in which it hunted, camouflaging it against prey and predators in ancient times. The amount of brindle will vary from dog to dog as well as the brindle pattern. Most puppies are born completely black and their brindle will emerge as they age and will continue to change for around the first five years of their life. In the home, the Kai Ken requires basic canine care. They can be kept in an apartment setting provided they receive regular exercise in the form of leashed walks. Being a naturally clean breed, bathing should be limited to only when dirty. Brushing is recommended, especially during twice-a-year coat blowing.</t>
+  </si>
+  <si>
     <t xml:space="preserve">TheKai Ken should do well on a high-quality dog food, whether commercially manufactured or home-prepared with your veterinarian8217s supervision and approval. Any diet should be appropriate to the dogs age puppy, adult, or senior. Treats can be an important aid in training, but giving too many can cause obesity. Learn about which human foods are safe for dogs, and which are not. Kai Ken are a breed known to self-regulate their food intake, so it is not unusual to see variability in the quantity of food consumed.Check with your vet if you have any concerns about your dogs weight or diet. Clean, fresh water should be available at all times.</t>
   </si>
   <si>
@@ -6383,9 +6386,7 @@
     <t xml:space="preserve">150 pounds male, 110 pounds female</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                        COAT
-                        The coat is short, dense and of uniform length and smoothness all over the body. The hairs are straight and not longer than 1 inch. No fringe anywhere.</t>
+    <t xml:space="preserve">Unless you’ve been to Jurassic Park, you’ve never seen anything like a Mastino. These majestic guardians of startling appearance are massive, powerful dogs. The U.S. Neapolitan Mastiff Club describes their dog’s head as “astounding”—and give them credit for hitting upon just the right adjective. The profuse hanging wrinkles and folds, and pendulous lips, make a Mastino look like a marzipan Mastiff that’s been out in the sun too long. And yet, the breed’s inner dignity and nobility can only be described as beautiful.</t>
   </si>
   <si>
     <t xml:space="preserve">The Neapolitan Mastiff should do well on a high-quality dog food, whether commercially manufactured or home-prepared with your veterinarian8217s supervision and approval. Any diet should be appropriate to the dogs age puppy, adult, or senior. Experienced Neapolitan Mastiff breeders recommend food that is slightly higher in fat and lower in protein, especially when the dog is young, as they grow so fast. Do not supplement with calcium.  Check with your vet if you have any concerns about your dogs weight or diet. Clean, fresh water should be available at all times.</t>
@@ -7860,6 +7861,9 @@
     <t xml:space="preserve">10 years</t>
   </si>
   <si>
+    <t xml:space="preserve">Beneath the Ridgeback’s trademark ridge is a whole lot of hound: Ridgebacks are fast and powerful athletes who can weigh between 70 and 85 pounds, and oftentimes more. They come in only one color – wheaten – which spans every shade seen in a wheat field, from pale flaxen to the burnished red of a maturing crop. Ridgebacks also have two nose colors: black and the less commonly seen brown. The formidable Ridgeback can be strong willed, independent, and sometimes domineering. Ridgebacks must be guided with a firm but fair hand from puppyhood. They are faithful friends, protective of their loved ones and meltingly affectionate with those whom they trust. Still, a Ridgeback can be too much hound for the novice dog owner.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Rhodesian Ridgeback should do well on a high-quality dog food, whether commercially manufactured or home-prepared with your veterinarians supervision and approval. Any diet should be appropriate to the dogs age puppy, adult, or senior.Ridgebacks are notorious counter surfers, so be sure not to leave human food unattended. Some dogs are prone to getting overweight, so watch your dogs calorie consumption and weight level. Treats can be an important aid in training, but giving too many can cause obesity. Learn about which human foods are safe for dogs, and which are not. Check with your vet if you have any concerns about your dogs weight or diet. Clean, fresh water should be available at all times.</t>
   </si>
   <si>
@@ -8347,6 +8351,9 @@
   </si>
   <si>
     <t xml:space="preserve">40-60 pounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Segugio Italiano is also known as the Segit (pronounced: see get). It is an ancient breed thought to have descended from Egyptian hounds who found their way to the many city states that make up today’s Italy. A scenthound originally used for wild boar dating back to Italy’s pre-Roman era, similar dogs have been depicted in statues of “Diana Cacciatrice” and “Diana Scoccante L’arco” located in the Museum of Naples and the Vatican Museum respectively. Remains of dogs identical to these hounds were discovered in the province of Verona, and a painting dating back to 1600 in the Borso d’Este castle shows a hound identical to the Italian hound. Though their exact origins remain shrouded in mystery, these artifacts serve as evidence to the hound’s long and pervasive history in the region. After the decline of wild boar in the Italian countryside, the Segit, like many similar hunting dogs, saw a drop in popularity; many dog breeds faced extinction. Thanks to the efforts of dedicated houndsmen and the resilience of the breed, this native son of Italy is now one of the most popular dogs in its homeland. Today, Segits are most often seen hunting rabbits and other small game. Rarely tracking unintended game, this robust, medium-sized hound can be run both solo or in packs. It has been used not only to track, but to track and kill, its quarry. Known for its powerful nose and “steel legs” this dog can work in any terrain with speed and accuracy for hours on end.</t>
   </si>
   <si>
     <t xml:space="preserve">For optimum performance, the Segugio Italiano should be fed a high protein, low fat diet specifically made for performance dogs. For less active dogs, consult your veterinarian for the right diet for your dogs activity level.  Fresh clean water should be available at all times.</t>
@@ -9767,6 +9774,9 @@
   </si>
   <si>
     <t xml:space="preserve">13 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wetterhoun was originally bred to hunt otters and is native to Friesland, Netherlands. The breed is considered rare, and most reside in the Netherlands today. The Dutch Kennel Club recognized the breed in 1943. The Nederlandse Vereniging voor Stabiij en Wetterhounen, the breed’s club in the Netherlands, is also the club for the Wetterhoun’s close relative, the Stabyhoun.</t>
   </si>
   <si>
     <t xml:space="preserve">The Wetterhoun should do well on a high-quality dog food, whether commercially manufactured or home-prepared with your veterinarians supervision and approval.</t>
@@ -10198,11 +10208,11 @@
   </sheetPr>
   <dimension ref="A1:R278"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H82" activeCellId="0" sqref="H82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="67.33"/>
@@ -18381,7 +18391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
@@ -18404,28 +18414,28 @@
         <v>22</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>56</v>
+        <v>1807</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="N147" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O147" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="P147" s="0" t="n">
         <v>0.44043321299639</v>
@@ -18442,46 +18452,46 @@
         <v>146</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>131</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="L148" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="N148" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O148" s="0" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="P148" s="0" t="n">
         <v>0.635379061371841</v>
@@ -18498,46 +18508,46 @@
         <v>147</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>1337</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="O149" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="P149" s="0" t="n">
         <v>0.779783393501805</v>
@@ -18554,46 +18564,46 @@
         <v>148</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="G150" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L150" s="0" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="O150" s="0" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="P150" s="0" t="n">
         <v>0.25812274368231</v>
@@ -18610,46 +18620,46 @@
         <v>149</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="G151" s="0" t="s">
         <v>131</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="L151" s="0" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="N151" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O151" s="0" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="P151" s="0" t="n">
         <v>0.184115523465704</v>
@@ -18666,16 +18676,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>535</v>
@@ -18684,28 +18694,28 @@
         <v>90</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="O152" s="0" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="P152" s="0" t="n">
         <v>0.537906137184115</v>
@@ -18722,10 +18732,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>56</v>
@@ -18734,34 +18744,34 @@
         <v>180</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>117</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="O153" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="P153" s="0" t="n">
         <v>0.146209386281588</v>
@@ -18778,46 +18788,46 @@
         <v>152</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="G154" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="L154" s="0" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="O154" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="P154" s="0" t="n">
         <v>0.250902527075812</v>
@@ -18834,16 +18844,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>943</v>
@@ -18852,28 +18862,28 @@
         <v>90</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="L155" s="0" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="O155" s="0" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="P155" s="0" t="n">
         <v>0.75812274368231</v>
@@ -18890,46 +18900,46 @@
         <v>154</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L156" s="0" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="O156" s="0" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="P156" s="0" t="n">
         <v>0.389891696750903</v>
@@ -18946,46 +18956,46 @@
         <v>155</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="G157" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="L157" s="0" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="O157" s="0" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="P157" s="0" t="n">
         <v>0.379061371841155</v>
@@ -19002,10 +19012,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>56</v>
@@ -19014,34 +19024,34 @@
         <v>596</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="L158" s="0" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="N158" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O158" s="0" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="P158" s="0" t="n">
         <v>0.220216606498195</v>
@@ -19058,10 +19068,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>56</v>
@@ -19070,34 +19080,34 @@
         <v>982</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>77</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="L159" s="0" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="N159" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O159" s="0" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="P159" s="0" t="n">
         <v>0.501805054151625</v>
@@ -19114,46 +19124,46 @@
         <v>158</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="K160" s="0" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="L160" s="0" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="O160" s="0" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="P160" s="0" t="n">
         <v>0.819494584837545</v>
@@ -19170,16 +19180,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>495</v>
@@ -19188,28 +19198,28 @@
         <v>22</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="L161" s="0" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="M161" s="0" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="N161" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O161" s="0" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="P161" s="0" t="n">
         <v>0.462093862815885</v>
@@ -19226,46 +19236,46 @@
         <v>160</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E162" s="0" t="s">
         <v>968</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G162" s="0" t="s">
         <v>1220</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="L162" s="0" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="O162" s="0" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="P162" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -19282,46 +19292,46 @@
         <v>161</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="G163" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="L163" s="0" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="M163" s="0" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="O163" s="0" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="P163" s="0" t="n">
         <v>0.812274368231047</v>
@@ -19338,46 +19348,46 @@
         <v>162</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="L164" s="0" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="M164" s="0" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="O164" s="0" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="P164" s="0" t="n">
         <v>0.146209386281588</v>
@@ -19394,46 +19404,46 @@
         <v>163</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>596</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="L165" s="0" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="M165" s="0" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="O165" s="0" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="P165" s="0" t="n">
         <v>0.176895306859206</v>
@@ -19450,46 +19460,46 @@
         <v>164</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L166" s="0" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="M166" s="0" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="O166" s="0" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="P166" s="0" t="n">
         <v>0.931407942238267</v>
@@ -19506,16 +19516,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>1806</v>
@@ -19524,28 +19534,28 @@
         <v>332</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="L167" s="0" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="M167" s="0" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="N167" s="0" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="O167" s="0" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="P167" s="0" t="n">
         <v>0.364620938628159</v>
@@ -19562,46 +19572,46 @@
         <v>166</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="G168" s="0" t="s">
         <v>131</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="L168" s="0" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="M168" s="0" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="N168" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O168" s="0" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="P168" s="0" t="n">
         <v>0.653429602888087</v>
@@ -19618,16 +19628,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>769</v>
@@ -19636,28 +19646,28 @@
         <v>169</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="L169" s="0" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="M169" s="0" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="N169" s="0" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="O169" s="0" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="P169" s="0" t="n">
         <v>0.541516245487365</v>
@@ -19674,46 +19684,46 @@
         <v>168</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="K170" s="0" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="L170" s="0" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="N170" s="0" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="O170" s="0" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="P170" s="0" t="n">
         <v>0.675090252707581</v>
@@ -19730,46 +19740,46 @@
         <v>169</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="G171" s="0" t="s">
         <v>63</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="L171" s="0" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="N171" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O171" s="0" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="P171" s="0" t="n">
         <v>0.494584837545126</v>
@@ -19786,7 +19796,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>1104</v>
@@ -19795,37 +19805,37 @@
         <v>56</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="G172" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="L172" s="0" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="N172" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O172" s="0" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="P172" s="0" t="n">
         <v>0.447653429602888</v>
@@ -19837,51 +19847,51 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="109.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="G173" s="0" t="s">
         <v>808</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="L173" s="0" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="N173" s="0" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="O173" s="0" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P173" s="0" t="n">
         <v>0.581227436823105</v>
@@ -19898,46 +19908,46 @@
         <v>172</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="G174" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="L174" s="0" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="N174" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O174" s="0" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="P174" s="0" t="n">
         <v>0.225631768953069</v>
@@ -19954,46 +19964,46 @@
         <v>173</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="L175" s="0" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="N175" s="0" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="O175" s="0" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="P175" s="0" t="n">
         <v>0.927797833935018</v>
@@ -20010,46 +20020,46 @@
         <v>174</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>1291</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="G176" s="0" t="s">
         <v>169</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="L176" s="0" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="N176" s="0" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="O176" s="0" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="P176" s="0" t="n">
         <v>0.487364620938628</v>
@@ -20066,46 +20076,46 @@
         <v>175</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="G177" s="0" t="s">
         <v>1592</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="L177" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="N177" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O177" s="0" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="P177" s="0" t="n">
         <v>0.577617328519856</v>
@@ -20122,46 +20132,46 @@
         <v>176</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="G178" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="L178" s="0" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="N178" s="0" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="O178" s="0" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="P178" s="0" t="n">
         <v>0.458483754512635</v>
@@ -20178,46 +20188,46 @@
         <v>177</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="G179" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="L179" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="M179" s="0" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="N179" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="O179" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="P179" s="0" t="n">
         <v>0.895306859205776</v>
@@ -20234,46 +20244,46 @@
         <v>178</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="G180" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="K180" s="0" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="L180" s="0" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M180" s="0" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="N180" s="0" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="O180" s="0" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="P180" s="0" t="n">
         <v>0.433212996389892</v>
@@ -20290,46 +20300,46 @@
         <v>179</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="G181" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="L181" s="0" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="M181" s="0" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="N181" s="0" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="O181" s="0" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="P181" s="0" t="n">
         <v>0.379061371841155</v>
@@ -20346,16 +20356,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="F182" s="0" t="s">
         <v>218</v>
@@ -20364,28 +20374,28 @@
         <v>293</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="K182" s="0" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="L182" s="0" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="M182" s="0" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="N182" s="0" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O182" s="0" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="P182" s="0" t="n">
         <v>0.628158844765343</v>
@@ -20402,46 +20412,46 @@
         <v>181</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="G183" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="K183" s="0" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="M183" s="0" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="N183" s="0" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="O183" s="0" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="P183" s="0" t="n">
         <v>0.754512635379061</v>
@@ -20458,46 +20468,46 @@
         <v>182</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="G184" s="0" t="s">
         <v>63</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="M184" s="0" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="N184" s="0" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="O184" s="0" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="P184" s="0" t="n">
         <v>0.346570397111913</v>
@@ -20514,46 +20524,46 @@
         <v>183</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>1142</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="G185" s="0" t="s">
         <v>144</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="L185" s="0" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="N185" s="0" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="O185" s="0" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="P185" s="0" t="n">
         <v>0.693140794223827</v>
@@ -20570,46 +20580,46 @@
         <v>184</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>117</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="K186" s="0" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="L186" s="0" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="M186" s="0" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="N186" s="0" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="O186" s="0" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="P186" s="0" t="n">
         <v>0.279783393501805</v>
@@ -20626,46 +20636,46 @@
         <v>185</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="G187" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="M187" s="0" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="N187" s="0" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="O187" s="0" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="P187" s="0" t="n">
         <v>0.682310469314079</v>
@@ -20682,46 +20692,46 @@
         <v>186</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>596</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>332</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="L188" s="0" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="M188" s="0" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="N188" s="0" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="O188" s="0" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P188" s="0" t="n">
         <v>0.711191335740072</v>
@@ -20738,46 +20748,46 @@
         <v>187</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>574</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="L189" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="N189" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O189" s="0" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P189" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -20794,46 +20804,46 @@
         <v>188</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="G190" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="L190" s="0" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="M190" s="0" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="N190" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O190" s="0" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="P190" s="0" t="n">
         <v>0.137184115523466</v>
@@ -20850,46 +20860,46 @@
         <v>189</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>1749</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="G191" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="N191" s="0" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="O191" s="0" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="P191" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -20906,16 +20916,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="F192" s="0" t="s">
         <v>370</v>
@@ -20924,28 +20934,28 @@
         <v>293</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="M192" s="0" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="O192" s="0" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="P192" s="0" t="n">
         <v>0.732851985559567</v>
@@ -20962,46 +20972,46 @@
         <v>191</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>228</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="G193" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="L193" s="0" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="M193" s="0" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="N193" s="0" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="O193" s="0" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="P193" s="0" t="n">
         <v>0.631768953068592</v>
@@ -21018,46 +21028,46 @@
         <v>192</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="K194" s="0" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="M194" s="0" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="N194" s="0" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="O194" s="0" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="P194" s="0" t="n">
         <v>0.898916967509025</v>
@@ -21074,13 +21084,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="E195" s="0" t="s">
         <v>217</v>
@@ -21092,28 +21102,28 @@
         <v>293</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="L195" s="0" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="M195" s="0" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="N195" s="0" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="O195" s="0" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="P195" s="0" t="n">
         <v>0.194945848375451</v>
@@ -21130,46 +21140,46 @@
         <v>194</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="G196" s="0" t="s">
         <v>169</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="K196" s="0" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="M196" s="0" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="N196" s="0" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="O196" s="0" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="P196" s="0" t="n">
         <v>0.956678700361011</v>
@@ -21186,46 +21196,46 @@
         <v>195</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="L197" s="0" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="M197" s="0" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="O197" s="0" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="P197" s="0" t="n">
         <v>0.624548736462094</v>
@@ -21242,46 +21252,46 @@
         <v>196</v>
       </c>
       <c r="B198" s="0" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G198" s="0" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H198" s="0" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I198" s="0" t="s">
+        <v>2418</v>
+      </c>
+      <c r="J198" s="0" t="s">
+        <v>2419</v>
+      </c>
+      <c r="K198" s="0" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L198" s="0" t="s">
+        <v>2420</v>
+      </c>
+      <c r="M198" s="0" t="s">
+        <v>2421</v>
+      </c>
+      <c r="N198" s="0" t="s">
+        <v>2422</v>
+      </c>
+      <c r="O198" s="0" t="s">
         <v>2414</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>2402</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>2403</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>2415</v>
-      </c>
-      <c r="F198" s="0" t="s">
-        <v>2416</v>
-      </c>
-      <c r="G198" s="0" t="s">
-        <v>2405</v>
-      </c>
-      <c r="H198" s="0" t="s">
-        <v>2406</v>
-      </c>
-      <c r="I198" s="0" t="s">
-        <v>2417</v>
-      </c>
-      <c r="J198" s="0" t="s">
-        <v>2418</v>
-      </c>
-      <c r="K198" s="0" t="s">
-        <v>2409</v>
-      </c>
-      <c r="L198" s="0" t="s">
-        <v>2419</v>
-      </c>
-      <c r="M198" s="0" t="s">
-        <v>2420</v>
-      </c>
-      <c r="N198" s="0" t="s">
-        <v>2421</v>
-      </c>
-      <c r="O198" s="0" t="s">
-        <v>2413</v>
       </c>
       <c r="P198" s="0" t="n">
         <v>0.523465703971119</v>
@@ -21298,46 +21308,46 @@
         <v>197</v>
       </c>
       <c r="B199" s="0" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G199" s="0" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H199" s="0" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I199" s="0" t="s">
+        <v>2418</v>
+      </c>
+      <c r="J199" s="0" t="s">
+        <v>2419</v>
+      </c>
+      <c r="K199" s="0" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L199" s="0" t="s">
+        <v>2427</v>
+      </c>
+      <c r="M199" s="0" t="s">
+        <v>2428</v>
+      </c>
+      <c r="N199" s="0" t="s">
         <v>2422</v>
       </c>
-      <c r="C199" s="0" t="s">
-        <v>2423</v>
-      </c>
-      <c r="D199" s="0" t="s">
-        <v>2403</v>
-      </c>
-      <c r="E199" s="0" t="s">
-        <v>2424</v>
-      </c>
-      <c r="F199" s="0" t="s">
-        <v>2425</v>
-      </c>
-      <c r="G199" s="0" t="s">
-        <v>2405</v>
-      </c>
-      <c r="H199" s="0" t="s">
-        <v>2406</v>
-      </c>
-      <c r="I199" s="0" t="s">
-        <v>2417</v>
-      </c>
-      <c r="J199" s="0" t="s">
-        <v>2418</v>
-      </c>
-      <c r="K199" s="0" t="s">
-        <v>2409</v>
-      </c>
-      <c r="L199" s="0" t="s">
-        <v>2426</v>
-      </c>
-      <c r="M199" s="0" t="s">
-        <v>2427</v>
-      </c>
-      <c r="N199" s="0" t="s">
-        <v>2421</v>
-      </c>
       <c r="O199" s="0" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="P199" s="0" t="n">
         <v>0.794223826714801</v>
@@ -21354,46 +21364,46 @@
         <v>198</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>332</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="M200" s="0" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="N200" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O200" s="0" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="P200" s="0" t="n">
         <v>0.552346570397112</v>
@@ -21410,46 +21420,46 @@
         <v>199</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="G201" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="K201" s="0" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="L201" s="0" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="M201" s="0" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="N201" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O201" s="0" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="P201" s="0" t="n">
         <v>0.646209386281588</v>
@@ -21466,46 +21476,46 @@
         <v>200</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="G202" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="K202" s="0" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="L202" s="0" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="M202" s="0" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="N202" s="0" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="O202" s="0" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="P202" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -21522,7 +21532,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>606</v>
@@ -21531,37 +21541,37 @@
         <v>56</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="G203" s="0" t="s">
         <v>1795</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="L203" s="0" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="M203" s="0" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="N203" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O203" s="0" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="P203" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -21578,46 +21588,46 @@
         <v>202</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>332</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="L204" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M204" s="0" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="N204" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O204" s="0" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="P204" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -21634,16 +21644,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="F205" s="0" t="s">
         <v>1684</v>
@@ -21652,28 +21662,28 @@
         <v>131</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="K205" s="0" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="L205" s="0" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="M205" s="0" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="N205" s="0" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="O205" s="0" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="P205" s="0" t="n">
         <v>0.664259927797834</v>
@@ -21690,7 +21700,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>719</v>
@@ -21699,7 +21709,7 @@
         <v>56</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="F206" s="0" t="s">
         <v>156</v>
@@ -21708,28 +21718,28 @@
         <v>1795</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="K206" s="0" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="L206" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M206" s="0" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="N206" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O206" s="0" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="P206" s="0" t="n">
         <v>0.386281588447653</v>
@@ -21746,46 +21756,46 @@
         <v>205</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>929</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="G207" s="0" t="s">
         <v>117</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="L207" s="0" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="M207" s="0" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="N207" s="0" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="O207" s="0" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="P207" s="0" t="n">
         <v>0.971119133574007</v>
@@ -21802,46 +21812,46 @@
         <v>206</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>304</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="G208" s="0" t="s">
         <v>357</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="L208" s="0" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="M208" s="0" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="N208" s="0" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="O208" s="0" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="P208" s="0" t="n">
         <v>0.422382671480144</v>
@@ -21858,46 +21868,46 @@
         <v>207</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="G209" s="0" t="s">
         <v>332</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="K209" s="0" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="L209" s="0" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="M209" s="0" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="N209" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O209" s="0" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="P209" s="0" t="n">
         <v>0.337545126353791</v>
@@ -21914,46 +21924,46 @@
         <v>208</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="G210" s="0" t="s">
         <v>63</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="K210" s="0" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="L210" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M210" s="0" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="N210" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O210" s="0" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="P210" s="0" t="n">
         <v>0.194945848375451</v>
@@ -21970,46 +21980,46 @@
         <v>209</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="L211" s="0" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="M211" s="0" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="N211" s="0" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="O211" s="0" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="P211" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -22026,16 +22036,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="F212" s="0" t="s">
         <v>1316</v>
@@ -22044,28 +22054,28 @@
         <v>293</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="K212" s="0" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="L212" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M212" s="0" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="N212" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O212" s="0" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="P212" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -22082,46 +22092,46 @@
         <v>211</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="F213" s="0" t="s">
         <v>1783</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="L213" s="0" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="M213" s="0" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N213" s="0" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="O213" s="0" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="P213" s="0" t="n">
         <v>0.534296028880867</v>
@@ -22138,16 +22148,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="F214" s="0" t="s">
         <v>156</v>
@@ -22156,28 +22166,28 @@
         <v>22</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="L214" s="0" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="M214" s="0" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="N214" s="0" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="O214" s="0" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="P214" s="0" t="n">
         <v>0.444043321299639</v>
@@ -22189,51 +22199,51 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>806</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="L215" s="0" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="M215" s="0" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="N215" s="0" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="O215" s="0" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="P215" s="0" t="n">
         <v>0.722021660649819</v>
@@ -22250,46 +22260,46 @@
         <v>214</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="G216" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="K216" s="0" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="L216" s="0" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="M216" s="0" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="N216" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O216" s="0" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="P216" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -22306,46 +22316,46 @@
         <v>215</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>572</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="K217" s="0" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="L217" s="0" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="M217" s="0" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="N217" s="0" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="O217" s="0" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="P217" s="0" t="n">
         <v>0.945848375451263</v>
@@ -22362,46 +22372,46 @@
         <v>216</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>596</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="G218" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="K218" s="0" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="L218" s="0" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="M218" s="0" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="N218" s="0" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="O218" s="0" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="P218" s="0" t="n">
         <v>0.725631768953069</v>
@@ -22418,10 +22428,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>56</v>
@@ -22430,34 +22440,34 @@
         <v>1142</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="G219" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="L219" s="0" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="M219" s="0" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="N219" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O219" s="0" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="P219" s="0" t="n">
         <v>0.274368231046931</v>
@@ -22474,10 +22484,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>56</v>
@@ -22486,34 +22496,34 @@
         <v>1291</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="G220" s="0" t="s">
         <v>169</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="L220" s="0" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="M220" s="0" t="s">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="N220" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O220" s="0" t="s">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c r="P220" s="0" t="n">
         <v>0.187725631768953</v>
@@ -22530,46 +22540,46 @@
         <v>219</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="G221" s="0" t="s">
         <v>758</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="L221" s="0" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="M221" s="0" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="N221" s="0" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="O221" s="0" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="P221" s="0" t="n">
         <v>0.909747292418773</v>
@@ -22586,46 +22596,46 @@
         <v>220</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="F222" s="0" t="s">
         <v>331</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="L222" s="0" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="M222" s="0" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="N222" s="0" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="O222" s="0" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="P222" s="0" t="n">
         <v>0.617328519855596</v>
@@ -22642,46 +22652,46 @@
         <v>221</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="G223" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c r="M223" s="0" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c r="N223" s="0" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="O223" s="0" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="P223" s="0" t="n">
         <v>0.963898916967509</v>
@@ -22698,10 +22708,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>56</v>
@@ -22710,34 +22720,34 @@
         <v>1082</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c r="G224" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>2707</v>
+        <v>2709</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="L224" s="0" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="M224" s="0" t="s">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c r="N224" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O224" s="0" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="P224" s="0" t="n">
         <v>0.216606498194946</v>
@@ -22754,46 +22764,46 @@
         <v>223</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>2715</v>
+        <v>2717</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="G225" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="L225" s="0" t="s">
-        <v>2721</v>
+        <v>2723</v>
       </c>
       <c r="M225" s="0" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="N225" s="0" t="s">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="O225" s="0" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="P225" s="0" t="n">
         <v>0.823104693140794</v>
@@ -22810,46 +22820,46 @@
         <v>224</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="G226" s="0" t="s">
         <v>1569</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="L226" s="0" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="M226" s="0" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="N226" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O226" s="0" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="P226" s="0" t="n">
         <v>0.783393501805054</v>
@@ -22866,46 +22876,46 @@
         <v>225</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="G227" s="0" t="s">
         <v>319</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
       <c r="L227" s="0" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="M227" s="0" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
       <c r="N227" s="0" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="O227" s="0" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="P227" s="0" t="n">
         <v>0.772563176895307</v>
@@ -22922,46 +22932,46 @@
         <v>226</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="G228" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="K228" s="0" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="L228" s="0" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="M228" s="0" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
       <c r="N228" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O228" s="0" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="P228" s="0" t="n">
         <v>0.209386281588448</v>
@@ -22973,51 +22983,51 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="G229" s="0" t="s">
         <v>131</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>56</v>
+        <v>2767</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="L229" s="0" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="M229" s="0" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="N229" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O229" s="0" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="P229" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -23034,46 +23044,46 @@
         <v>228</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>1761</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="G230" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
       <c r="L230" s="0" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="M230" s="0" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="N230" s="0" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="O230" s="0" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="P230" s="0" t="n">
         <v>0.747292418772563</v>
@@ -23090,46 +23100,46 @@
         <v>229</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="L231" s="0" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="M231" s="0" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="N231" s="0" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="O231" s="0" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="P231" s="0" t="n">
         <v>0.96028880866426</v>
@@ -23146,46 +23156,46 @@
         <v>230</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="L232" s="0" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="M232" s="0" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="N232" s="0" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="O232" s="0" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="P232" s="0" t="n">
         <v>0.790613718411552</v>
@@ -23202,46 +23212,46 @@
         <v>231</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="G233" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="L233" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M233" s="0" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="N233" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O233" s="0" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="P233" s="0" t="n">
         <v>0.306859205776173</v>
@@ -23258,46 +23268,46 @@
         <v>232</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="G234" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="L234" s="0" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="M234" s="0" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="N234" s="0" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="O234" s="0" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="P234" s="0" t="n">
         <v>0.906137184115524</v>
@@ -23314,46 +23324,46 @@
         <v>233</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="E235" s="0" t="s">
         <v>1291</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="G235" s="0" t="s">
         <v>117</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="L235" s="0" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="M235" s="0" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="N235" s="0" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
       <c r="O235" s="0" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
       <c r="P235" s="0" t="n">
         <v>0.395306859205776</v>
@@ -23370,46 +23380,46 @@
         <v>234</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>820</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="G236" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="L236" s="0" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="M236" s="0" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="N236" s="0" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="O236" s="0" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
       <c r="P236" s="0" t="n">
         <v>0.250902527075812</v>
@@ -23426,16 +23436,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="F237" s="0" t="s">
         <v>218</v>
@@ -23444,28 +23454,28 @@
         <v>357</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>2859</v>
+        <v>2862</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>2860</v>
+        <v>2863</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="L237" s="0" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
       <c r="M237" s="0" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="N237" s="0" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
       <c r="O237" s="0" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
       <c r="P237" s="0" t="n">
         <v>0.117328519855596</v>
@@ -23482,46 +23492,46 @@
         <v>236</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>2869</v>
+        <v>2872</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="G238" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="L238" s="0" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="M238" s="0" t="s">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="N238" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O238" s="0" t="s">
-        <v>2877</v>
+        <v>2880</v>
       </c>
       <c r="P238" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -23538,46 +23548,46 @@
         <v>237</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>2880</v>
+        <v>2883</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>2881</v>
+        <v>2884</v>
       </c>
       <c r="G239" s="0" t="s">
         <v>131</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>2884</v>
+        <v>2887</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="L239" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M239" s="0" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="N239" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O239" s="0" t="s">
-        <v>2887</v>
+        <v>2890</v>
       </c>
       <c r="P239" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -23594,10 +23604,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>2888</v>
+        <v>2891</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>56</v>
@@ -23606,34 +23616,34 @@
         <v>1082</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="G240" s="0" t="s">
         <v>332</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>2891</v>
+        <v>2894</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>2892</v>
+        <v>2895</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="L240" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M240" s="0" t="s">
-        <v>2895</v>
+        <v>2898</v>
       </c>
       <c r="N240" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O240" s="0" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
       <c r="P240" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -23650,46 +23660,46 @@
         <v>239</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>2898</v>
+        <v>2901</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>2899</v>
+        <v>2902</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>2900</v>
+        <v>2903</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>2901</v>
+        <v>2904</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>2902</v>
+        <v>2905</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>2903</v>
+        <v>2906</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>2904</v>
+        <v>2907</v>
       </c>
       <c r="L241" s="0" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="M241" s="0" t="s">
-        <v>2906</v>
+        <v>2909</v>
       </c>
       <c r="N241" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O241" s="0" t="s">
-        <v>2907</v>
+        <v>2910</v>
       </c>
       <c r="P241" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -23706,46 +23716,46 @@
         <v>240</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>2908</v>
+        <v>2911</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>2909</v>
+        <v>2912</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>2910</v>
+        <v>2913</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
       <c r="G242" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>2913</v>
+        <v>2916</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>2916</v>
+        <v>2919</v>
       </c>
       <c r="L242" s="0" t="s">
-        <v>2917</v>
+        <v>2920</v>
       </c>
       <c r="M242" s="0" t="s">
-        <v>2918</v>
+        <v>2921</v>
       </c>
       <c r="N242" s="0" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="O242" s="0" t="s">
-        <v>2920</v>
+        <v>2923</v>
       </c>
       <c r="P242" s="0" t="n">
         <v>0.194945848375451</v>
@@ -23762,46 +23772,46 @@
         <v>241</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>2921</v>
+        <v>2924</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>2922</v>
+        <v>2925</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>2923</v>
+        <v>2926</v>
       </c>
       <c r="E243" s="0" t="s">
         <v>167</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>2924</v>
+        <v>2927</v>
       </c>
       <c r="G243" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>2925</v>
+        <v>2928</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>2927</v>
+        <v>2930</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="L243" s="0" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="M243" s="0" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="N243" s="0" t="s">
-        <v>2931</v>
+        <v>2934</v>
       </c>
       <c r="O243" s="0" t="s">
-        <v>2932</v>
+        <v>2935</v>
       </c>
       <c r="P243" s="0" t="n">
         <v>0.667870036101083</v>
@@ -23818,46 +23828,46 @@
         <v>242</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>2933</v>
+        <v>2936</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>2934</v>
+        <v>2937</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>2935</v>
+        <v>2938</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>2936</v>
+        <v>2939</v>
       </c>
       <c r="G244" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>2937</v>
+        <v>2940</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>2938</v>
+        <v>2941</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>2939</v>
+        <v>2942</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>2940</v>
+        <v>2943</v>
       </c>
       <c r="L244" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M244" s="0" t="s">
-        <v>2941</v>
+        <v>2944</v>
       </c>
       <c r="N244" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O244" s="0" t="s">
-        <v>2942</v>
+        <v>2945</v>
       </c>
       <c r="P244" s="0" t="n">
         <v>0.584837545126354</v>
@@ -23874,46 +23884,46 @@
         <v>243</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>2943</v>
+        <v>2946</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>2944</v>
+        <v>2947</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>2945</v>
+        <v>2948</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>2946</v>
+        <v>2949</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="G245" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>2951</v>
+        <v>2954</v>
       </c>
       <c r="L245" s="0" t="s">
-        <v>2952</v>
+        <v>2955</v>
       </c>
       <c r="M245" s="0" t="s">
-        <v>2953</v>
+        <v>2956</v>
       </c>
       <c r="N245" s="0" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="O245" s="0" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="P245" s="0" t="n">
         <v>0.332129963898917</v>
@@ -23930,46 +23940,46 @@
         <v>244</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>2960</v>
+        <v>2963</v>
       </c>
       <c r="G246" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>2961</v>
+        <v>2964</v>
       </c>
       <c r="I246" s="0" t="s">
-        <v>2962</v>
+        <v>2965</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="K246" s="0" t="s">
-        <v>2964</v>
+        <v>2967</v>
       </c>
       <c r="L246" s="0" t="s">
-        <v>2965</v>
+        <v>2968</v>
       </c>
       <c r="M246" s="0" t="s">
-        <v>2966</v>
+        <v>2969</v>
       </c>
       <c r="N246" s="0" t="s">
-        <v>2967</v>
+        <v>2970</v>
       </c>
       <c r="O246" s="0" t="s">
-        <v>2968</v>
+        <v>2971</v>
       </c>
       <c r="P246" s="0" t="n">
         <v>0.234657039711191</v>
@@ -23986,10 +23996,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>2969</v>
+        <v>2972</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>2970</v>
+        <v>2973</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>56</v>
@@ -23998,34 +24008,34 @@
         <v>1601</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>117</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>2971</v>
+        <v>2974</v>
       </c>
       <c r="I247" s="0" t="s">
-        <v>2972</v>
+        <v>2975</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>2973</v>
+        <v>2976</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>2974</v>
+        <v>2977</v>
       </c>
       <c r="L247" s="0" t="s">
-        <v>2975</v>
+        <v>2978</v>
       </c>
       <c r="M247" s="0" t="s">
-        <v>2976</v>
+        <v>2979</v>
       </c>
       <c r="N247" s="0" t="s">
-        <v>2977</v>
+        <v>2980</v>
       </c>
       <c r="O247" s="0" t="s">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="P247" s="0" t="n">
         <v>0.371841155234657</v>
@@ -24042,46 +24052,46 @@
         <v>246</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>2979</v>
+        <v>2982</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>2980</v>
+        <v>2983</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>2981</v>
+        <v>2984</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>2982</v>
+        <v>2985</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>2983</v>
+        <v>2986</v>
       </c>
       <c r="G248" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>2984</v>
+        <v>2987</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>2985</v>
+        <v>2988</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>2986</v>
+        <v>2989</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>2987</v>
+        <v>2990</v>
       </c>
       <c r="L248" s="0" t="s">
-        <v>2988</v>
+        <v>2991</v>
       </c>
       <c r="M248" s="0" t="s">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="N248" s="0" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="O248" s="0" t="s">
-        <v>2991</v>
+        <v>2994</v>
       </c>
       <c r="P248" s="0" t="n">
         <v>0.703971119133574</v>
@@ -24098,46 +24108,46 @@
         <v>247</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>2994</v>
+        <v>2997</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>2995</v>
+        <v>2998</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>2996</v>
+        <v>2999</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>2997</v>
+        <v>3000</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>2998</v>
+        <v>3001</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="L249" s="0" t="s">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="M249" s="0" t="s">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="N249" s="0" t="s">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="O249" s="0" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="P249" s="0" t="n">
         <v>0.270758122743682</v>
@@ -24154,46 +24164,46 @@
         <v>248</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="E250" s="0" t="s">
         <v>1749</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>117</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>3008</v>
+        <v>3011</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>3009</v>
+        <v>3012</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>3011</v>
+        <v>3014</v>
       </c>
       <c r="L250" s="0" t="s">
-        <v>3012</v>
+        <v>3015</v>
       </c>
       <c r="M250" s="0" t="s">
-        <v>3013</v>
+        <v>3016</v>
       </c>
       <c r="N250" s="0" t="s">
-        <v>3014</v>
+        <v>3017</v>
       </c>
       <c r="O250" s="0" t="s">
-        <v>3015</v>
+        <v>3018</v>
       </c>
       <c r="P250" s="0" t="n">
         <v>0.167870036101083</v>
@@ -24210,10 +24220,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>3016</v>
+        <v>3019</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>3017</v>
+        <v>3020</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>56</v>
@@ -24222,34 +24232,34 @@
         <v>1082</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>3018</v>
+        <v>3021</v>
       </c>
       <c r="G251" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>3019</v>
+        <v>3022</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>3021</v>
+        <v>3024</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>3022</v>
+        <v>3025</v>
       </c>
       <c r="L251" s="0" t="s">
-        <v>3023</v>
+        <v>3026</v>
       </c>
       <c r="M251" s="0" t="s">
-        <v>3024</v>
+        <v>3027</v>
       </c>
       <c r="N251" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O251" s="0" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="P251" s="0" t="n">
         <v>0.279783393501805</v>
@@ -24266,46 +24276,46 @@
         <v>250</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>3026</v>
+        <v>3029</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>3027</v>
+        <v>3030</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>3028</v>
+        <v>3031</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>3029</v>
+        <v>3032</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>3030</v>
+        <v>3033</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>3032</v>
+        <v>3035</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="L252" s="0" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="M252" s="0" t="s">
-        <v>3035</v>
+        <v>3038</v>
       </c>
       <c r="N252" s="0" t="s">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="O252" s="0" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="P252" s="0" t="n">
         <v>0.815884476534296</v>
@@ -24322,10 +24332,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>3039</v>
+        <v>3042</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>56</v>
@@ -24334,34 +24344,34 @@
         <v>229</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>3043</v>
+        <v>3046</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>3045</v>
+        <v>3048</v>
       </c>
       <c r="L253" s="0" t="s">
-        <v>3045</v>
+        <v>3048</v>
       </c>
       <c r="M253" s="0" t="s">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="N253" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O253" s="0" t="s">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="P253" s="0" t="n">
         <v>0.808664259927798</v>
@@ -24378,46 +24388,46 @@
         <v>252</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="G254" s="0" t="s">
         <v>144</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>3054</v>
+        <v>3057</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="L254" s="0" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="M254" s="0" t="s">
-        <v>3057</v>
+        <v>3060</v>
       </c>
       <c r="N254" s="3" t="s">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="O254" s="0" t="s">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="P254" s="0" t="n">
         <v>0.137184115523466</v>
@@ -24434,46 +24444,46 @@
         <v>253</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>3060</v>
+        <v>3063</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>3063</v>
+        <v>3066</v>
       </c>
       <c r="G255" s="0" t="s">
         <v>332</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>3064</v>
+        <v>3067</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>3065</v>
+        <v>3068</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>3066</v>
+        <v>3069</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>3068</v>
+        <v>3071</v>
       </c>
       <c r="M255" s="0" t="s">
-        <v>3069</v>
+        <v>3072</v>
       </c>
       <c r="N255" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O255" s="0" t="s">
-        <v>3070</v>
+        <v>3073</v>
       </c>
       <c r="P255" s="0" t="n">
         <v>0.407942238267148</v>
@@ -24490,46 +24500,46 @@
         <v>254</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>3071</v>
+        <v>3074</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>3072</v>
+        <v>3075</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>3073</v>
+        <v>3076</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>3074</v>
+        <v>3077</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>3076</v>
+        <v>3079</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>3077</v>
+        <v>3080</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>3078</v>
+        <v>3081</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>3079</v>
+        <v>3082</v>
       </c>
       <c r="L256" s="0" t="s">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="M256" s="0" t="s">
-        <v>3081</v>
+        <v>3084</v>
       </c>
       <c r="N256" s="0" t="s">
-        <v>3082</v>
+        <v>3085</v>
       </c>
       <c r="O256" s="0" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="P256" s="0" t="n">
         <v>0.884476534296029</v>
@@ -24546,46 +24556,46 @@
         <v>255</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>3085</v>
+        <v>3088</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="I257" s="0" t="s">
-        <v>3088</v>
+        <v>3091</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="L257" s="0" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="M257" s="0" t="s">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="N257" s="0" t="s">
-        <v>3093</v>
+        <v>3096</v>
       </c>
       <c r="O257" s="0" t="s">
-        <v>3094</v>
+        <v>3097</v>
       </c>
       <c r="P257" s="0" t="n">
         <v>0.415162454873646</v>
@@ -24602,46 +24612,46 @@
         <v>256</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>3097</v>
+        <v>3100</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>3098</v>
+        <v>3101</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>3099</v>
+        <v>3102</v>
       </c>
       <c r="G258" s="0" t="s">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>3101</v>
+        <v>3104</v>
       </c>
       <c r="I258" s="0" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>3104</v>
+        <v>3107</v>
       </c>
       <c r="L258" s="0" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="M258" s="0" t="s">
-        <v>3106</v>
+        <v>3109</v>
       </c>
       <c r="N258" s="0" t="s">
-        <v>3107</v>
+        <v>3110</v>
       </c>
       <c r="O258" s="0" t="s">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="P258" s="0" t="n">
         <v>0.476534296028881</v>
@@ -24658,10 +24668,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>3109</v>
+        <v>3112</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>3110</v>
+        <v>3113</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>56</v>
@@ -24670,34 +24680,34 @@
         <v>1645</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>3111</v>
+        <v>3114</v>
       </c>
       <c r="G259" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>3112</v>
+        <v>3115</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>3113</v>
+        <v>3116</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>3114</v>
+        <v>3117</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="L259" s="0" t="s">
-        <v>3116</v>
+        <v>3119</v>
       </c>
       <c r="M259" s="0" t="s">
-        <v>3117</v>
+        <v>3120</v>
       </c>
       <c r="N259" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O259" s="0" t="s">
-        <v>3118</v>
+        <v>3121</v>
       </c>
       <c r="P259" s="0" t="n">
         <v>0.317689530685921</v>
@@ -24714,46 +24724,46 @@
         <v>258</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>3123</v>
+        <v>3126</v>
       </c>
       <c r="I260" s="0" t="s">
-        <v>3124</v>
+        <v>3127</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="L260" s="0" t="s">
-        <v>3127</v>
+        <v>3130</v>
       </c>
       <c r="M260" s="0" t="s">
-        <v>3128</v>
+        <v>3131</v>
       </c>
       <c r="N260" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O260" s="0" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="P260" s="0" t="n">
         <v>0.606498194945848</v>
@@ -24770,46 +24780,46 @@
         <v>259</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>3130</v>
+        <v>3133</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>3131</v>
+        <v>3134</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>3132</v>
+        <v>3135</v>
       </c>
       <c r="E261" s="0" t="s">
         <v>1624</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>3133</v>
+        <v>3136</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>117</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>3134</v>
+        <v>3137</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>3135</v>
+        <v>3138</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>3137</v>
+        <v>3140</v>
       </c>
       <c r="L261" s="0" t="s">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="M261" s="0" t="s">
-        <v>3139</v>
+        <v>3142</v>
       </c>
       <c r="N261" s="0" t="s">
-        <v>3140</v>
+        <v>3143</v>
       </c>
       <c r="O261" s="0" t="s">
-        <v>3141</v>
+        <v>3144</v>
       </c>
       <c r="P261" s="0" t="n">
         <v>0.425992779783394</v>
@@ -24826,46 +24836,46 @@
         <v>260</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
       <c r="G262" s="0" t="s">
         <v>77</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="L262" s="0" t="s">
-        <v>3149</v>
+        <v>3152</v>
       </c>
       <c r="M262" s="0" t="s">
-        <v>3150</v>
+        <v>3153</v>
       </c>
       <c r="N262" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O262" s="0" t="s">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="P262" s="0" t="n">
         <v>0.310469314079422</v>
@@ -24882,16 +24892,16 @@
         <v>261</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>3152</v>
+        <v>3155</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>3131</v>
+        <v>3134</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>3153</v>
+        <v>3156</v>
       </c>
       <c r="F263" s="0" t="s">
         <v>1794</v>
@@ -24900,28 +24910,28 @@
         <v>90</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>3157</v>
+        <v>3160</v>
       </c>
       <c r="L263" s="0" t="s">
         <v>56</v>
       </c>
       <c r="M263" s="0" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="N263" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O263" s="0" t="s">
-        <v>3159</v>
+        <v>3162</v>
       </c>
       <c r="P263" s="0" t="n">
         <v>0.267148014440433</v>
@@ -24938,16 +24948,16 @@
         <v>262</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="F264" s="0" t="s">
         <v>48</v>
@@ -24956,28 +24966,28 @@
         <v>332</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="K264" s="0" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="L264" s="0" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="M264" s="0" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="N264" s="0" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="O264" s="0" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="P264" s="0" t="n">
         <v>0.465703971119134</v>
@@ -24994,46 +25004,46 @@
         <v>263</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="E265" s="0" t="s">
         <v>1722</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="G265" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="L265" s="0" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="M265" s="0" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
       <c r="N265" s="0" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="O265" s="0" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="P265" s="0" t="n">
         <v>0.765342960288808</v>
@@ -25050,46 +25060,46 @@
         <v>264</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="E266" s="0" t="s">
         <v>521</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>63</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>3191</v>
+        <v>3194</v>
       </c>
       <c r="L266" s="0" t="s">
-        <v>3192</v>
+        <v>3195</v>
       </c>
       <c r="M266" s="0" t="s">
-        <v>3193</v>
+        <v>3196</v>
       </c>
       <c r="N266" s="0" t="s">
-        <v>3194</v>
+        <v>3197</v>
       </c>
       <c r="O266" s="0" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="P266" s="0" t="n">
         <v>0.84115523465704</v>
@@ -25106,46 +25116,46 @@
         <v>265</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="E267" s="0" t="s">
         <v>167</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="G267" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>3202</v>
+        <v>3205</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="L267" s="0" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
       <c r="M267" s="0" t="s">
-        <v>3205</v>
+        <v>3208</v>
       </c>
       <c r="N267" s="0" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="O267" s="0" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="P267" s="0" t="n">
         <v>0.299638989169675</v>
@@ -25162,46 +25172,46 @@
         <v>266</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="G268" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="K268" s="0" t="s">
-        <v>3216</v>
+        <v>3219</v>
       </c>
       <c r="L268" s="0" t="s">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="M268" s="0" t="s">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="N268" s="0" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
       <c r="O268" s="0" t="s">
-        <v>3220</v>
+        <v>3223</v>
       </c>
       <c r="P268" s="0" t="n">
         <v>0.545126353790614</v>
@@ -25218,16 +25228,16 @@
         <v>267</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>3221</v>
+        <v>3224</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>3222</v>
+        <v>3225</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>3224</v>
+        <v>3227</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>266</v>
@@ -25236,28 +25246,28 @@
         <v>117</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>3225</v>
+        <v>3228</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>3226</v>
+        <v>3229</v>
       </c>
       <c r="J269" s="0" t="s">
-        <v>3227</v>
+        <v>3230</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>3228</v>
+        <v>3231</v>
       </c>
       <c r="L269" s="0" t="s">
-        <v>3229</v>
+        <v>3232</v>
       </c>
       <c r="M269" s="0" t="s">
-        <v>3230</v>
+        <v>3233</v>
       </c>
       <c r="N269" s="0" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="O269" s="0" t="s">
-        <v>3232</v>
+        <v>3235</v>
       </c>
       <c r="P269" s="0" t="n">
         <v>0.32129963898917</v>
@@ -25269,51 +25279,51 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>3233</v>
+        <v>3236</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>3234</v>
+        <v>3237</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>3236</v>
+        <v>3239</v>
       </c>
       <c r="G270" s="0" t="s">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>56</v>
+        <v>3241</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="J270" s="0" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="K270" s="0" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="L270" s="0" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
       <c r="M270" s="0" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="N270" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O270" s="0" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="P270" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -25330,46 +25340,46 @@
         <v>269</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="E271" s="0" t="s">
         <v>608</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="G271" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H271" s="0" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="J271" s="0" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="K271" s="0" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="L271" s="0" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="M271" s="0" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="N271" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O271" s="0" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
       <c r="P271" s="0" t="n">
         <v>0.833935018050541</v>
@@ -25386,46 +25396,46 @@
         <v>270</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>3254</v>
+        <v>3258</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>3256</v>
+        <v>3260</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
       <c r="G272" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>3257</v>
+        <v>3261</v>
       </c>
       <c r="I272" s="0" t="s">
-        <v>3258</v>
+        <v>3262</v>
       </c>
       <c r="J272" s="0" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="K272" s="0" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
       <c r="L272" s="0" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="M272" s="0" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="N272" s="3" t="s">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="O272" s="0" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="P272" s="0" t="n">
         <v>0.48014440433213</v>
@@ -25442,46 +25452,46 @@
         <v>271</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>3268</v>
+        <v>3272</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="G273" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H273" s="0" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="J273" s="0" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>3273</v>
+        <v>3277</v>
       </c>
       <c r="L273" s="0" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="M273" s="0" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="N273" s="0" t="s">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="O273" s="0" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="P273" s="0" t="n">
         <v>0.292418772563177</v>
@@ -25498,46 +25508,46 @@
         <v>272</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>3280</v>
+        <v>3284</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>3282</v>
+        <v>3286</v>
       </c>
       <c r="G274" s="0" t="s">
         <v>293</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>3283</v>
+        <v>3287</v>
       </c>
       <c r="I274" s="0" t="s">
-        <v>3284</v>
+        <v>3288</v>
       </c>
       <c r="J274" s="0" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>3286</v>
+        <v>3290</v>
       </c>
       <c r="L274" s="0" t="s">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="M274" s="0" t="s">
-        <v>3288</v>
+        <v>3292</v>
       </c>
       <c r="N274" s="0" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="O274" s="0" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="P274" s="0" t="n">
         <v>0.25812274368231</v>
@@ -25554,46 +25564,46 @@
         <v>273</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="G275" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H275" s="0" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="I275" s="0" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
       <c r="J275" s="0" t="s">
-        <v>3297</v>
+        <v>3301</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>3298</v>
+        <v>3302</v>
       </c>
       <c r="L275" s="0" t="s">
-        <v>3299</v>
+        <v>3303</v>
       </c>
       <c r="M275" s="0" t="s">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="N275" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O275" s="0" t="s">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="P275" s="0" t="n">
         <v>0.225631768953069</v>
@@ -25610,46 +25620,46 @@
         <v>274</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>3302</v>
+        <v>3306</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>3303</v>
+        <v>3307</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>264</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>3305</v>
+        <v>3309</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>970</v>
       </c>
       <c r="H276" s="0" t="s">
-        <v>3306</v>
+        <v>3310</v>
       </c>
       <c r="I276" s="0" t="s">
-        <v>3307</v>
+        <v>3311</v>
       </c>
       <c r="J276" s="0" t="s">
-        <v>3308</v>
+        <v>3312</v>
       </c>
       <c r="K276" s="0" t="s">
-        <v>3309</v>
+        <v>3313</v>
       </c>
       <c r="L276" s="0" t="s">
-        <v>3310</v>
+        <v>3314</v>
       </c>
       <c r="M276" s="0" t="s">
-        <v>3311</v>
+        <v>3315</v>
       </c>
       <c r="N276" s="0" t="s">
-        <v>3312</v>
+        <v>3316</v>
       </c>
       <c r="O276" s="0" t="s">
-        <v>3313</v>
+        <v>3317</v>
       </c>
       <c r="P276" s="0" t="n">
         <v>0.555956678700361</v>
@@ -25666,16 +25676,16 @@
         <v>275</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>3314</v>
+        <v>3318</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>3315</v>
+        <v>3319</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>3316</v>
+        <v>3320</v>
       </c>
       <c r="F277" s="0" t="s">
         <v>721</v>
@@ -25684,28 +25694,28 @@
         <v>90</v>
       </c>
       <c r="H277" s="0" t="s">
-        <v>3317</v>
+        <v>3321</v>
       </c>
       <c r="I277" s="0" t="s">
-        <v>3318</v>
+        <v>3322</v>
       </c>
       <c r="J277" s="0" t="s">
-        <v>3319</v>
+        <v>3323</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>3320</v>
+        <v>3324</v>
       </c>
       <c r="L277" s="0" t="s">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="M277" s="0" t="s">
-        <v>3322</v>
+        <v>3326</v>
       </c>
       <c r="N277" s="0" t="s">
         <v>56</v>
       </c>
       <c r="O277" s="0" t="s">
-        <v>3323</v>
+        <v>3327</v>
       </c>
       <c r="P277" s="0" t="n">
         <v>0.0577617328519856</v>
@@ -25722,46 +25732,46 @@
         <v>276</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>3324</v>
+        <v>3328</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>3325</v>
+        <v>3329</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>3326</v>
+        <v>3330</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>3327</v>
+        <v>3331</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>3328</v>
+        <v>3332</v>
       </c>
       <c r="G278" s="0" t="s">
         <v>267</v>
       </c>
       <c r="H278" s="0" t="s">
-        <v>3329</v>
+        <v>3333</v>
       </c>
       <c r="I278" s="0" t="s">
-        <v>3330</v>
+        <v>3334</v>
       </c>
       <c r="J278" s="0" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="K278" s="0" t="s">
-        <v>3332</v>
+        <v>3336</v>
       </c>
       <c r="L278" s="0" t="s">
-        <v>3333</v>
+        <v>3337</v>
       </c>
       <c r="M278" s="0" t="s">
-        <v>3334</v>
+        <v>3338</v>
       </c>
       <c r="N278" s="0" t="s">
-        <v>3335</v>
+        <v>3339</v>
       </c>
       <c r="O278" s="0" t="s">
-        <v>3336</v>
+        <v>3340</v>
       </c>
       <c r="P278" s="0" t="n">
         <v>0.649819494584838</v>
